--- a/F.xlsx
+++ b/F.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="April, 2018" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="June, 2018" sheetId="9" r:id="rId3"/>
     <sheet name="July, 2018" sheetId="10" r:id="rId4"/>
     <sheet name="August, 2018" sheetId="11" r:id="rId5"/>
-    <sheet name="Outcome" sheetId="3" r:id="rId6"/>
+    <sheet name="Reference" sheetId="3" r:id="rId6"/>
     <sheet name="2018" sheetId="5" r:id="rId7"/>
     <sheet name="2019" sheetId="6" r:id="rId8"/>
     <sheet name="2020" sheetId="7" r:id="rId9"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="450">
   <si>
     <t>Dinner</t>
   </si>
@@ -843,10 +843,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Total</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Haircut (Thao)</t>
   </si>
   <si>
@@ -1377,35 +1373,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Japan trip</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vietnam trip</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Taiwan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>楽天全米</t>
-    <rPh sb="0" eb="2">
-      <t>ラクテン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゼンベイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ニッセイ国内株式</t>
-    <rPh sb="4" eb="6">
-      <t>コクナイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カブシキ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1420,10 +1388,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Taiwan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Travel</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1432,21 +1396,70 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ニッセイ外国株式</t>
+    <t>Ticket</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ひふみプラス</t>
+    <t>Spend</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>外国債券</t>
+    <t>合計</t>
     <rPh sb="0" eb="2">
-      <t>ガイコク</t>
+      <t>ゴウケイ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>サイケン</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VTI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VEA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VWO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AGG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GLD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IYR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NI225</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vietnam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ticket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vietnam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Entertainment</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1621,7 +1634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1658,9 +1671,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1674,11 +1691,37 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1686,22 +1729,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1808,17 +1840,42 @@
     <xf numFmtId="3" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1882,47 +1939,59 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Outcome!$F$3:$F$7</c:f>
+              <c:f>Reference!$F$3:$F$9</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>楽天全米</c:v>
+                  <c:v>VTI</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ひふみプラス</c:v>
+                  <c:v>VEA</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ニッセイ外国株式</c:v>
+                  <c:v>VWO</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ニッセイ国内株式</c:v>
+                  <c:v>AGG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>外国債券</c:v>
+                  <c:v>GLD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>IYR</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NI225</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Outcome!$G$3:$G$7</c:f>
+              <c:f>Reference!$G$3:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>25000</c:v>
+                  <c:v>20220</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20000</c:v>
+                  <c:v>20280</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1942,7 +2011,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2168,19 +2236,19 @@
                   <c:v>422083</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>393785</c:v>
+                  <c:v>393895</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>409466</c:v>
+                  <c:v>447966</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>237466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2195,8 +2263,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="69923584"/>
-        <c:axId val="69925120"/>
+        <c:axId val="51935872"/>
+        <c:axId val="51941760"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2283,19 +2351,19 @@
                   <c:v>537372</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>442964</c:v>
+                  <c:v>442854</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>359340</c:v>
+                  <c:v>140730</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>421874</c:v>
+                  <c:v>192764</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>484408</c:v>
+                  <c:v>244798</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>776942</c:v>
+                  <c:v>596832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2312,11 +2380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69923584"/>
-        <c:axId val="69925120"/>
+        <c:axId val="51935872"/>
+        <c:axId val="51941760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69923584"/>
+        <c:axId val="51935872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,7 +2393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69925120"/>
+        <c:crossAx val="51941760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2333,7 +2401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69925120"/>
+        <c:axId val="51941760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,7 +2412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69923584"/>
+        <c:crossAx val="51935872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2568,40 +2636,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>167466</c:v>
+                  <c:v>217966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>367466</c:v>
+                  <c:v>327966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>167466</c:v>
+                  <c:v>247966</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>367466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>417466</c:v>
+                  <c:v>367966</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>367466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2616,8 +2684,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="70308992"/>
-        <c:axId val="70310528"/>
+        <c:axId val="51955968"/>
+        <c:axId val="51957760"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2697,40 +2765,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>844476</c:v>
+                  <c:v>17034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>912010</c:v>
+                  <c:v>74068</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>979544</c:v>
+                  <c:v>131102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>847078</c:v>
+                  <c:v>38136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>914612</c:v>
+                  <c:v>25170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>982146</c:v>
+                  <c:v>82204</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1149680</c:v>
+                  <c:v>439238</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>967214</c:v>
+                  <c:v>306272</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1034748</c:v>
+                  <c:v>363306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1102282</c:v>
+                  <c:v>420340</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1169816</c:v>
+                  <c:v>477374</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1337350</c:v>
+                  <c:v>834408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,11 +2815,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70308992"/>
-        <c:axId val="70310528"/>
+        <c:axId val="51955968"/>
+        <c:axId val="51957760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70308992"/>
+        <c:axId val="51955968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70310528"/>
+        <c:crossAx val="51957760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2768,7 +2836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70310528"/>
+        <c:axId val="51957760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,14 +2847,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70308992"/>
+        <c:crossAx val="51955968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3003,40 +3070,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>167466</c:v>
+                  <c:v>327966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>167466</c:v>
+                  <c:v>247966</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>167466</c:v>
+                  <c:v>367966</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>167466</c:v>
+                  <c:v>177966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3051,8 +3118,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87451136"/>
-        <c:axId val="87452672"/>
+        <c:axId val="54495104"/>
+        <c:axId val="54496640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3132,40 +3199,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1409884</c:v>
+                  <c:v>-87966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1482418</c:v>
+                  <c:v>-25932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1554952</c:v>
+                  <c:v>36102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1627486</c:v>
+                  <c:v>98136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1700020</c:v>
+                  <c:v>90170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1772554</c:v>
+                  <c:v>152204</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2145088</c:v>
+                  <c:v>514238</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2217622</c:v>
+                  <c:v>386272</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2290156</c:v>
+                  <c:v>448306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2362690</c:v>
+                  <c:v>510340</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2435224</c:v>
+                  <c:v>572374</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2737758</c:v>
+                  <c:v>934408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3182,11 +3249,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87451136"/>
-        <c:axId val="87452672"/>
+        <c:axId val="54495104"/>
+        <c:axId val="54496640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87451136"/>
+        <c:axId val="54495104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3195,7 +3262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87452672"/>
+        <c:crossAx val="54496640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3203,7 +3270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87452672"/>
+        <c:axId val="54496640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3214,7 +3281,699 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87451136"/>
+        <c:crossAx val="54495104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2021'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'2021'!$C$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>610000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>610000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2021'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Outcome</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'2021'!$C$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>327966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>247966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>367966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="54523008"/>
+        <c:axId val="54524544"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2021'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2021'!$C$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2021'!$C$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-87966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-25932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>514238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>386272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>448306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>510340</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>572374</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>934408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="54523008"/>
+        <c:axId val="54524544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="54523008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54524544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="54524544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54523008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2021'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'2021'!$C$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>610000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>610000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2021'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Outcome</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'2021'!$C$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>327966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>247966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>367966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>177966</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>177966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="55014144"/>
+        <c:axId val="55015680"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2021'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2021'!$C$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2021'!$C$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-87966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-25932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>514238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>386272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>448306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>510340</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>572374</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>934408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="55014144"/>
+        <c:axId val="55015680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="55014144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55015680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55015680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55014144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3240,16 +3999,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3276,15 +4035,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3318,7 +4077,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3346,15 +4105,87 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3667,9 +4498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5693,10 +6522,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q8"/>
+  <dimension ref="B2:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5704,7 +6533,7 @@
     <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>239</v>
@@ -5742,14 +6571,8 @@
       <c r="N2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>223</v>
       </c>
@@ -5791,315 +6614,367 @@
         <f>310000+300000</f>
         <v>610000</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18+SUM(D33:D34)</f>
+        <v>327966</v>
       </c>
       <c r="D4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="E4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="F4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="G4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18+SUM(D35:D36)</f>
+        <v>247966</v>
       </c>
       <c r="H4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="I4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="J4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18+SUM(D37:D38)</f>
+        <v>367966</v>
       </c>
       <c r="K4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="L4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="M4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="N4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+        <f>Reference!$C$18</f>
+        <v>177966</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C5" s="23">
-        <f>'2020'!N5+Outcome!$G$8</f>
-        <v>1960000</v>
+        <f>Reference!$G$10</f>
+        <v>70000</v>
       </c>
       <c r="D5" s="23">
-        <f>C5+Outcome!$G$8</f>
-        <v>2030000</v>
+        <f>C5+Reference!$G$10</f>
+        <v>140000</v>
       </c>
       <c r="E5" s="23">
-        <f>D5+Outcome!$G$8</f>
-        <v>2100000</v>
+        <f>D5+Reference!$G$10</f>
+        <v>210000</v>
       </c>
       <c r="F5" s="23">
-        <f>E5+Outcome!$G$8</f>
-        <v>2170000</v>
+        <f>E5+Reference!$G$10</f>
+        <v>280000</v>
       </c>
       <c r="G5" s="23">
-        <f>F5+Outcome!$G$8</f>
-        <v>2240000</v>
+        <f>F5+Reference!$G$10</f>
+        <v>350000</v>
       </c>
       <c r="H5" s="23">
-        <f>G5+Outcome!$G$8</f>
-        <v>2310000</v>
+        <f>G5+Reference!$G$10</f>
+        <v>420000</v>
       </c>
       <c r="I5" s="23">
-        <f>H5+Outcome!$G$8</f>
-        <v>2380000</v>
+        <f>H5+Reference!$G$10</f>
+        <v>490000</v>
       </c>
       <c r="J5" s="23">
-        <f>I5+Outcome!$G$8</f>
-        <v>2450000</v>
+        <f>I5+Reference!$G$10</f>
+        <v>560000</v>
       </c>
       <c r="K5" s="23">
-        <f>J5+Outcome!$G$8</f>
-        <v>2520000</v>
+        <f>J5+Reference!$G$10</f>
+        <v>630000</v>
       </c>
       <c r="L5" s="23">
-        <f>K5+Outcome!$G$8</f>
-        <v>2590000</v>
+        <f>K5+Reference!$G$10</f>
+        <v>700000</v>
       </c>
       <c r="M5" s="23">
-        <f>L5+Outcome!$G$8</f>
-        <v>2660000</v>
+        <f>L5+Reference!$G$10</f>
+        <v>770000</v>
       </c>
       <c r="N5" s="23">
-        <f>M5+Outcome!$G$8</f>
-        <v>2730000</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+        <f>M5+Reference!$G$10</f>
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C6" s="23">
-        <f>'2020'!N6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>2098216.5397241041</v>
+        <f>'2020'!N6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>2305193.6095205564</v>
       </c>
       <c r="D6" s="23">
-        <f>C6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>2178707.6224227245</v>
+        <f>C6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>2386719.577568159</v>
       </c>
       <c r="E6" s="23">
-        <f>D6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>2259601.1605348377</v>
+        <f>D6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>2468653.1754559996</v>
       </c>
       <c r="F6" s="23">
-        <f>E6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>2340899.1663375115</v>
+        <f>E6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>2550996.4413332795</v>
       </c>
       <c r="G6" s="23">
-        <f>F6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>2422603.662169199</v>
+        <f>F6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>2633751.4235399454</v>
       </c>
       <c r="H6" s="23">
-        <f>G6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>2504716.6804800448</v>
+        <f>G6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>2716920.1806576448</v>
       </c>
       <c r="I6" s="23">
-        <f>H6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>2587240.2638824447</v>
+        <f>H6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>2800504.7815609328</v>
       </c>
       <c r="J6" s="23">
-        <f>I6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>2670176.4652018566</v>
+        <f>I6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>2884507.3054687371</v>
       </c>
       <c r="K6" s="23">
-        <f>J6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>2753527.3475278658</v>
+        <f>J6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>2968929.8419960807</v>
       </c>
       <c r="L6" s="23">
-        <f>K6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>2837294.9842655049</v>
+        <f>K6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>3053774.4912060606</v>
       </c>
       <c r="M6" s="23">
-        <f>L6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>2921481.459186832</v>
+        <f>L6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>3139043.3636620906</v>
       </c>
       <c r="N6" s="23">
-        <f>M6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>3006088.8664827659</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+        <f>M6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>3224738.5804804009</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
       <c r="C7" s="23">
-        <f>C3-C4+'2020'!N8-Outcome!$G$8</f>
-        <v>2810292</v>
+        <f>C3-C4-Reference!$G$10</f>
+        <v>-87966</v>
       </c>
       <c r="D7" s="23">
-        <f>D3-D4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>D3-D4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="E7" s="23">
-        <f>E3-E4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>E3-E4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="F7" s="23">
-        <f>F3-F4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>F3-F4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="G7" s="23">
-        <f>G3-G4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>G3-G4-Reference!$G$10</f>
+        <v>-7966</v>
       </c>
       <c r="H7" s="23">
-        <f>H3-H4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>H3-H4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="I7" s="23">
-        <f>I3-I4-Outcome!$G$8</f>
-        <v>372534</v>
+        <f>I3-I4-Reference!$G$10</f>
+        <v>362034</v>
       </c>
       <c r="J7" s="23">
-        <f>J3-J4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>J3-J4-Reference!$G$10</f>
+        <v>-127966</v>
       </c>
       <c r="K7" s="23">
-        <f>K3-K4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>K3-K4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="L7" s="23">
-        <f>L3-L4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>L3-L4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="M7" s="23">
-        <f>M3-M4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>M3-M4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="N7" s="23">
-        <f>N3-N4-Outcome!$G$8</f>
-        <v>372534</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+        <f>N3-N4-Reference!$G$10</f>
+        <v>362034</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C8" s="23">
         <f>C7</f>
-        <v>2810292</v>
+        <v>-87966</v>
       </c>
       <c r="D8" s="23">
         <f>D7+C8</f>
-        <v>2882826</v>
+        <v>-25932</v>
       </c>
       <c r="E8" s="23">
         <f>D8+E7</f>
-        <v>2955360</v>
+        <v>36102</v>
       </c>
       <c r="F8" s="23">
         <f t="shared" ref="F8" si="0">E8+F7</f>
-        <v>3027894</v>
+        <v>98136</v>
       </c>
       <c r="G8" s="23">
         <f t="shared" ref="G8" si="1">F8+G7</f>
-        <v>3100428</v>
+        <v>90170</v>
       </c>
       <c r="H8" s="23">
         <f t="shared" ref="H8" si="2">G8+H7</f>
-        <v>3172962</v>
+        <v>152204</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" ref="I8" si="3">H8+I7</f>
-        <v>3545496</v>
+        <v>514238</v>
       </c>
       <c r="J8" s="23">
         <f t="shared" ref="J8" si="4">I8+J7</f>
-        <v>3618030</v>
+        <v>386272</v>
       </c>
       <c r="K8" s="23">
         <f t="shared" ref="K8" si="5">J8+K7</f>
-        <v>3690564</v>
+        <v>448306</v>
       </c>
       <c r="L8" s="23">
         <f t="shared" ref="L8" si="6">K8+L7</f>
-        <v>3763098</v>
+        <v>510340</v>
       </c>
       <c r="M8" s="23">
         <f t="shared" ref="M8" si="7">L8+M7</f>
-        <v>3835632</v>
+        <v>572374</v>
       </c>
       <c r="N8" s="23">
         <f>M8+N7</f>
-        <v>4208166</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <f>SUM(Q4:Q7)</f>
-        <v>590000</v>
+        <v>934408</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="105" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" s="106"/>
+      <c r="D32" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="103" t="s">
+        <v>445</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="104"/>
+      <c r="C34" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D34" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="103" t="s">
+        <v>429</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D35" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="104"/>
+      <c r="C36" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D36" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="100" t="s">
+        <v>444</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D37" s="3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="100"/>
+      <c r="C38" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D38" s="3">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" s="102"/>
+      <c r="D39" s="94">
+        <f>SUM(D33:D38)</f>
+        <v>410000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q8"/>
+  <dimension ref="B2:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6108,7 +6983,7 @@
     <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>239</v>
@@ -6146,14 +7021,8 @@
       <c r="N2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>223</v>
       </c>
@@ -6195,309 +7064,361 @@
         <f>310000+300000</f>
         <v>610000</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18+SUM(D33:D34)</f>
+        <v>327966</v>
       </c>
       <c r="D4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="E4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="F4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="G4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18+SUM(D35:D36)</f>
+        <v>247966</v>
       </c>
       <c r="H4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="I4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="J4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18+SUM(D37:D38)</f>
+        <v>367966</v>
       </c>
       <c r="K4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="L4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="M4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="N4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+        <f>Reference!$C$18</f>
+        <v>177966</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C5" s="23">
-        <f>'2021'!N5+Outcome!$G$8</f>
-        <v>2800000</v>
+        <f>Reference!$G$10</f>
+        <v>70000</v>
       </c>
       <c r="D5" s="23">
-        <f>C5+Outcome!$G$8</f>
-        <v>2870000</v>
+        <f>C5+Reference!$G$10</f>
+        <v>140000</v>
       </c>
       <c r="E5" s="23">
-        <f>D5+Outcome!$G$8</f>
-        <v>2940000</v>
+        <f>D5+Reference!$G$10</f>
+        <v>210000</v>
       </c>
       <c r="F5" s="23">
-        <f>E5+Outcome!$G$8</f>
-        <v>3010000</v>
+        <f>E5+Reference!$G$10</f>
+        <v>280000</v>
       </c>
       <c r="G5" s="23">
-        <f>F5+Outcome!$G$8</f>
-        <v>3080000</v>
+        <f>F5+Reference!$G$10</f>
+        <v>350000</v>
       </c>
       <c r="H5" s="23">
-        <f>G5+Outcome!$G$8</f>
-        <v>3150000</v>
+        <f>G5+Reference!$G$10</f>
+        <v>420000</v>
       </c>
       <c r="I5" s="23">
-        <f>H5+Outcome!$G$8</f>
-        <v>3220000</v>
+        <f>H5+Reference!$G$10</f>
+        <v>490000</v>
       </c>
       <c r="J5" s="23">
-        <f>I5+Outcome!$G$8</f>
-        <v>3290000</v>
+        <f>I5+Reference!$G$10</f>
+        <v>560000</v>
       </c>
       <c r="K5" s="23">
-        <f>J5+Outcome!$G$8</f>
-        <v>3360000</v>
+        <f>J5+Reference!$G$10</f>
+        <v>630000</v>
       </c>
       <c r="L5" s="23">
-        <f>K5+Outcome!$G$8</f>
-        <v>3430000</v>
+        <f>K5+Reference!$G$10</f>
+        <v>700000</v>
       </c>
       <c r="M5" s="23">
-        <f>L5+Outcome!$G$8</f>
-        <v>3500000</v>
+        <f>L5+Reference!$G$10</f>
+        <v>770000</v>
       </c>
       <c r="N5" s="23">
-        <f>M5+Outcome!$G$8</f>
-        <v>3570000</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+        <f>M5+Reference!$G$10</f>
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C6" s="23">
-        <f>'2021'!N6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>3091119.3108151793</v>
+        <f>'2021'!N6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>3310862.2733828025</v>
       </c>
       <c r="D6" s="23">
-        <f>C6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>3176574.9073692546</v>
+        <f>C6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>3397416.5847497163</v>
       </c>
       <c r="E6" s="23">
-        <f>D6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>3262457.7819061005</v>
+        <f>D6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>3484403.6676734644</v>
       </c>
       <c r="F6" s="23">
-        <f>E6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>3348770.0708156307</v>
+        <f>E6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>3571825.6860118313</v>
       </c>
       <c r="G6" s="23">
-        <f>F6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>3435513.9211697085</v>
+        <f>F6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>3659684.81444189</v>
       </c>
       <c r="H6" s="23">
-        <f>G6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>3522691.4907755568</v>
+        <f>G6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>3747983.2385140993</v>
       </c>
       <c r="I6" s="23">
-        <f>H6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>3610304.948229434</v>
+        <f>H6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>3836723.1547066695</v>
       </c>
       <c r="J6" s="23">
-        <f>I6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>3698356.4729705807</v>
+        <f>I6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>3925906.7704802025</v>
       </c>
       <c r="K6" s="23">
-        <f>J6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>3786848.2553354334</v>
+        <f>J6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>4015536.3043326032</v>
       </c>
       <c r="L6" s="23">
-        <f>K6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>3875782.4966121102</v>
+        <f>K6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>4105613.9858542657</v>
       </c>
       <c r="M6" s="23">
-        <f>L6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>3965161.4090951704</v>
+        <f>L6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>4196142.0557835363</v>
       </c>
       <c r="N6" s="23">
-        <f>M6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>4054987.216140646</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+        <f>M6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>4287122.7660624534</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
       <c r="C7" s="23">
-        <f>C3-C4+'2021'!N8-Outcome!$G$8</f>
-        <v>4280700</v>
+        <f>C3-C4-Reference!$G$10</f>
+        <v>-87966</v>
       </c>
       <c r="D7" s="23">
-        <f>D3-D4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>D3-D4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="E7" s="23">
-        <f>E3-E4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>E3-E4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="F7" s="23">
-        <f>F3-F4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>F3-F4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="G7" s="23">
-        <f>G3-G4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>G3-G4-Reference!$G$10</f>
+        <v>-7966</v>
       </c>
       <c r="H7" s="23">
-        <f>H3-H4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>H3-H4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="I7" s="23">
-        <f>I3-I4-Outcome!$G$8</f>
-        <v>372534</v>
+        <f>I3-I4-Reference!$G$10</f>
+        <v>362034</v>
       </c>
       <c r="J7" s="23">
-        <f>J3-J4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>J3-J4-Reference!$G$10</f>
+        <v>-127966</v>
       </c>
       <c r="K7" s="23">
-        <f>K3-K4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>K3-K4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="L7" s="23">
-        <f>L3-L4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>L3-L4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="M7" s="23">
-        <f>M3-M4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>M3-M4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="N7" s="23">
-        <f>N3-N4-Outcome!$G$8</f>
-        <v>372534</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+        <f>N3-N4-Reference!$G$10</f>
+        <v>362034</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C8" s="23">
         <f>C7</f>
-        <v>4280700</v>
+        <v>-87966</v>
       </c>
       <c r="D8" s="23">
         <f>D7+C8</f>
-        <v>4353234</v>
+        <v>-25932</v>
       </c>
       <c r="E8" s="23">
         <f>D8+E7</f>
-        <v>4425768</v>
+        <v>36102</v>
       </c>
       <c r="F8" s="23">
-        <f t="shared" ref="F8:N8" si="0">E8+F7</f>
-        <v>4498302</v>
+        <f t="shared" ref="F8:M8" si="0">E8+F7</f>
+        <v>98136</v>
       </c>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
-        <v>4570836</v>
+        <v>90170</v>
       </c>
       <c r="H8" s="23">
         <f t="shared" si="0"/>
-        <v>4643370</v>
+        <v>152204</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="0"/>
-        <v>5015904</v>
+        <v>514238</v>
       </c>
       <c r="J8" s="23">
         <f t="shared" si="0"/>
-        <v>5088438</v>
+        <v>386272</v>
       </c>
       <c r="K8" s="23">
         <f t="shared" si="0"/>
-        <v>5160972</v>
+        <v>448306</v>
       </c>
       <c r="L8" s="23">
         <f t="shared" si="0"/>
-        <v>5233506</v>
+        <v>510340</v>
       </c>
       <c r="M8" s="23">
         <f t="shared" si="0"/>
-        <v>5306040</v>
+        <v>572374</v>
       </c>
       <c r="N8" s="23">
         <f>M8+N7</f>
-        <v>5678574</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <f>SUM(Q4:Q7)</f>
-        <v>590000</v>
+        <v>934408</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="105" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" s="106"/>
+      <c r="D32" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="103" t="s">
+        <v>445</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="104"/>
+      <c r="C34" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D34" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="103" t="s">
+        <v>429</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D35" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="104"/>
+      <c r="C36" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D36" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="100" t="s">
+        <v>444</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D37" s="3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="100"/>
+      <c r="C38" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D38" s="3">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" s="102"/>
+      <c r="D39" s="94">
+        <f>SUM(D33:D38)</f>
+        <v>410000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6505,9 +7426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E70" sqref="E2:E70"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8158,9 +9077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8203,13 +9120,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="24" t="s">
         <v>292</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>293</v>
       </c>
       <c r="D2" s="26" t="str">
         <f t="shared" ref="D2:D33" si="0">RIGHT(C2, LEN(C2)-4)</f>
@@ -8248,7 +9165,7 @@
         <v>203</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D3" s="43" t="str">
         <f t="shared" si="0"/>
@@ -8287,7 +9204,7 @@
         <v>203</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D4" s="43" t="str">
         <f t="shared" si="0"/>
@@ -8443,7 +9360,7 @@
         <v>43277</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="16">
@@ -8495,7 +9412,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D10" s="40" t="str">
         <f t="shared" si="0"/>
@@ -8594,13 +9511,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D13" s="40" t="str">
         <f t="shared" si="0"/>
@@ -8670,7 +9587,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D15" s="40" t="str">
         <f t="shared" si="0"/>
@@ -8729,13 +9646,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D17" s="40" t="str">
         <f t="shared" si="0"/>
@@ -8748,7 +9665,7 @@
         <v>43266</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="16">
@@ -8819,7 +9736,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D20" s="40" t="str">
         <f t="shared" si="0"/>
@@ -8840,7 +9757,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D21" s="40" t="str">
         <f t="shared" si="0"/>
@@ -8876,13 +9793,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D23" s="40" t="str">
         <f t="shared" si="0"/>
@@ -8903,7 +9820,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D24" s="40" t="str">
         <f t="shared" si="0"/>
@@ -8987,7 +9904,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D28" s="40" t="str">
         <f t="shared" si="0"/>
@@ -9008,7 +9925,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D29" s="37" t="str">
         <f t="shared" si="0"/>
@@ -9033,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D30" s="37" t="str">
         <f t="shared" si="0"/>
@@ -9054,7 +9971,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D31" s="37" t="str">
         <f t="shared" si="0"/>
@@ -9075,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D32" s="37" t="str">
         <f t="shared" si="0"/>
@@ -9096,7 +10013,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D33" s="37" t="str">
         <f t="shared" si="0"/>
@@ -9111,13 +10028,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D34" s="26" t="str">
         <f t="shared" ref="D34:D64" si="2">RIGHT(C34, LEN(C34)-4)</f>
@@ -9136,13 +10053,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D35" s="26" t="str">
         <f t="shared" si="2"/>
@@ -9161,13 +10078,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>170</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D36" s="26" t="str">
         <f t="shared" si="2"/>
@@ -9186,13 +10103,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>120</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D37" s="26" t="str">
         <f t="shared" si="2"/>
@@ -9211,13 +10128,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>139</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D38" s="26" t="str">
         <f t="shared" si="2"/>
@@ -9236,13 +10153,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>139</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D39" s="26" t="str">
         <f t="shared" si="2"/>
@@ -9257,13 +10174,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>144</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D40" s="26" t="str">
         <f t="shared" si="2"/>
@@ -9282,13 +10199,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B41" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D41" s="34" t="str">
         <f t="shared" si="2"/>
@@ -9307,13 +10224,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B42" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D42" s="34" t="str">
         <f t="shared" si="2"/>
@@ -9334,7 +10251,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D43" s="34" t="str">
         <f t="shared" si="2"/>
@@ -9349,7 +10266,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B44" s="33" t="s">
         <v>6</v>
@@ -9370,13 +10287,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B45" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D45" s="34" t="str">
         <f t="shared" si="2"/>
@@ -9397,7 +10314,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D46" s="46" t="str">
         <f t="shared" si="2"/>
@@ -9422,7 +10339,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D47" s="46" t="str">
         <f t="shared" si="2"/>
@@ -9443,7 +10360,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D48" s="46" t="str">
         <f t="shared" si="2"/>
@@ -9464,7 +10381,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D49" s="46" t="str">
         <f t="shared" si="2"/>
@@ -9485,7 +10402,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D50" s="46" t="str">
         <f t="shared" si="2"/>
@@ -9506,7 +10423,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D51" s="46" t="str">
         <f t="shared" si="2"/>
@@ -9527,7 +10444,7 @@
         <v>14</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D52" s="46" t="str">
         <f t="shared" si="2"/>
@@ -9548,7 +10465,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D53" s="46" t="str">
         <f t="shared" si="2"/>
@@ -9563,13 +10480,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B54" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D54" s="46" t="str">
         <f t="shared" si="2"/>
@@ -9590,7 +10507,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D55" s="46" t="str">
         <f t="shared" si="2"/>
@@ -9611,7 +10528,7 @@
         <v>14</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D56" s="46" t="str">
         <f t="shared" si="2"/>
@@ -9632,7 +10549,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D57" s="46" t="str">
         <f t="shared" si="2"/>
@@ -9647,13 +10564,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B58" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D58" s="46" t="str">
         <f t="shared" si="2"/>
@@ -9674,7 +10591,7 @@
         <v>123</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D59" s="26" t="str">
         <f t="shared" si="2"/>
@@ -9764,13 +10681,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B63" s="49" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D63" s="50" t="str">
         <f t="shared" si="2"/>
@@ -9791,7 +10708,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D64" s="50" t="str">
         <f t="shared" si="2"/>
@@ -9834,9 +10751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9885,7 +10800,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D2" s="40" t="str">
         <f t="shared" ref="D2:D33" si="0">RIGHT(C2, LEN(C2)-4)</f>
@@ -9924,7 +10839,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D3" s="40" t="str">
         <f t="shared" si="0"/>
@@ -9959,7 +10874,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D4" s="40" t="str">
         <f t="shared" si="0"/>
@@ -9994,7 +10909,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" s="40" t="str">
         <f t="shared" si="0"/>
@@ -10029,7 +10944,7 @@
         <v>203</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D6" s="37" t="str">
         <f t="shared" si="0"/>
@@ -10067,7 +10982,7 @@
         <v>203</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D7" s="37" t="str">
         <f t="shared" si="0"/>
@@ -10118,7 +11033,7 @@
         <v>5175</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="16">
@@ -10274,7 +11189,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D13" s="83" t="str">
         <f t="shared" si="0"/>
@@ -10368,13 +11283,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="82" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B16" s="82" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D16" s="83" t="str">
         <f t="shared" si="0"/>
@@ -10422,7 +11337,7 @@
         <v>43300</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="16">
@@ -10452,7 +11367,7 @@
         <v>43300</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="16">
@@ -10469,7 +11384,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D19" s="83" t="str">
         <f t="shared" si="0"/>
@@ -10517,13 +11432,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="82" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B21" s="82" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D21" s="83" t="str">
         <f t="shared" si="0"/>
@@ -10544,7 +11459,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D22" s="83" t="str">
         <f t="shared" si="0"/>
@@ -10565,7 +11480,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D23" s="83" t="str">
         <f t="shared" si="0"/>
@@ -10691,7 +11606,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D29" s="83" t="str">
         <f t="shared" si="0"/>
@@ -10748,13 +11663,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="82" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" s="82" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D32" s="83" t="str">
         <f t="shared" si="0"/>
@@ -10796,7 +11711,7 @@
         <v>23</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D34" s="83" t="str">
         <f t="shared" ref="D34:D65" si="2">RIGHT(C34, LEN(C34)-4)</f>
@@ -10943,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D41" s="54" t="str">
         <f t="shared" si="2"/>
@@ -10968,7 +11883,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D42" s="54" t="str">
         <f t="shared" si="2"/>
@@ -10989,7 +11904,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D43" s="54" t="str">
         <f t="shared" si="2"/>
@@ -11004,13 +11919,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B44" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D44" s="54" t="str">
         <f t="shared" si="2"/>
@@ -11025,13 +11940,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B45" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D45" s="54" t="str">
         <f t="shared" si="2"/>
@@ -11052,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D46" s="54" t="str">
         <f t="shared" si="2"/>
@@ -11067,13 +11982,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B47" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D47" s="54" t="str">
         <f t="shared" si="2"/>
@@ -11094,7 +12009,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D48" s="54" t="str">
         <f t="shared" si="2"/>
@@ -11109,13 +12024,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D49" s="26" t="str">
         <f t="shared" si="2"/>
@@ -11134,13 +12049,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>112</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D50" s="26" t="str">
         <f t="shared" si="2"/>
@@ -11159,13 +12074,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="73" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B51" s="73" t="s">
         <v>120</v>
       </c>
       <c r="C51" s="73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D51" s="74" t="str">
         <f t="shared" si="2"/>
@@ -11184,13 +12099,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="73" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B52" s="73" t="s">
         <v>120</v>
       </c>
       <c r="C52" s="73" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D52" s="74" t="str">
         <f t="shared" si="2"/>
@@ -11205,13 +12120,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="C53" s="24" t="s">
         <v>411</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>412</v>
       </c>
       <c r="D53" s="26" t="str">
         <f t="shared" si="2"/>
@@ -11230,13 +12145,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="58" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B54" s="58" t="s">
         <v>139</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D54" s="59" t="str">
         <f t="shared" si="2"/>
@@ -11255,13 +12170,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B55" s="58" t="s">
         <v>139</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D55" s="59" t="str">
         <f t="shared" si="2"/>
@@ -11276,13 +12191,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B56" s="49" t="s">
         <v>144</v>
       </c>
       <c r="C56" s="49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D56" s="50" t="str">
         <f t="shared" si="2"/>
@@ -11301,13 +12216,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="49" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B57" s="49" t="s">
         <v>144</v>
       </c>
       <c r="C57" s="49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D57" s="50" t="str">
         <f t="shared" si="2"/>
@@ -11322,13 +12237,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B58" s="49" t="s">
         <v>144</v>
       </c>
       <c r="C58" s="49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D58" s="50" t="str">
         <f t="shared" si="2"/>
@@ -11343,13 +12258,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B59" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D59" s="62" t="str">
         <f t="shared" si="2"/>
@@ -11374,7 +12289,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D60" s="62" t="str">
         <f t="shared" si="2"/>
@@ -11389,13 +12304,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="61" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B61" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D61" s="62" t="str">
         <f t="shared" si="2"/>
@@ -11416,7 +12331,7 @@
         <v>14</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D62" s="87" t="str">
         <f t="shared" si="2"/>
@@ -11441,7 +12356,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D63" s="87" t="str">
         <f t="shared" si="2"/>
@@ -11462,7 +12377,7 @@
         <v>14</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D64" s="87" t="str">
         <f t="shared" si="2"/>
@@ -11483,7 +12398,7 @@
         <v>14</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D65" s="87" t="str">
         <f t="shared" si="2"/>
@@ -11504,7 +12419,7 @@
         <v>14</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D66" s="87" t="str">
         <f t="shared" ref="D66:D83" si="3">RIGHT(C66, LEN(C66)-4)</f>
@@ -11525,7 +12440,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D67" s="87" t="str">
         <f t="shared" si="3"/>
@@ -11546,7 +12461,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D68" s="87" t="str">
         <f t="shared" si="3"/>
@@ -11567,7 +12482,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D69" s="87" t="str">
         <f t="shared" si="3"/>
@@ -11588,7 +12503,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D70" s="87" t="str">
         <f t="shared" si="3"/>
@@ -11609,7 +12524,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D71" s="87" t="str">
         <f t="shared" si="3"/>
@@ -11624,7 +12539,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>14</v>
@@ -11651,7 +12566,7 @@
         <v>14</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D73" s="87" t="str">
         <f t="shared" si="3"/>
@@ -11672,7 +12587,7 @@
         <v>14</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D74" s="87" t="str">
         <f t="shared" si="3"/>
@@ -11693,7 +12608,7 @@
         <v>14</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D75" s="87" t="str">
         <f t="shared" si="3"/>
@@ -11714,7 +12629,7 @@
         <v>14</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D76" s="87" t="str">
         <f t="shared" si="3"/>
@@ -11735,7 +12650,7 @@
         <v>14</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D77" s="87" t="str">
         <f t="shared" si="3"/>
@@ -11756,7 +12671,7 @@
         <v>14</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D78" s="87" t="str">
         <f t="shared" si="3"/>
@@ -11777,7 +12692,7 @@
         <v>26</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D79" s="26" t="str">
         <f t="shared" si="3"/>
@@ -11796,7 +12711,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="78" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B80" s="78" t="s">
         <v>62</v>
@@ -11842,13 +12757,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="78" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B82" s="78" t="s">
         <v>62</v>
       </c>
       <c r="C82" s="78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D82" s="79" t="str">
         <f t="shared" si="3"/>
@@ -11863,13 +12778,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="78" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B83" s="78" t="s">
         <v>62</v>
       </c>
       <c r="C83" s="78" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D83" s="79" t="str">
         <f t="shared" si="3"/>
@@ -11896,9 +12811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11947,7 +12860,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D2" s="40" t="str">
         <f t="shared" ref="D2:D49" si="0">RIGHT(C2, LEN(C2)-4)</f>
@@ -11986,7 +12899,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D3" s="40" t="str">
         <f t="shared" si="0"/>
@@ -12022,7 +12935,7 @@
         <v>203</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D4" s="46" t="str">
         <f t="shared" si="0"/>
@@ -12061,7 +12974,7 @@
         <v>203</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D5" s="46" t="str">
         <f t="shared" si="0"/>
@@ -12097,7 +13010,7 @@
         <v>203</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D6" s="46" t="str">
         <f t="shared" si="0"/>
@@ -12127,13 +13040,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>203</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D7" s="46" t="str">
         <f t="shared" si="0"/>
@@ -12166,7 +13079,7 @@
         <v>203</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D8" s="46" t="str">
         <f t="shared" si="0"/>
@@ -12180,7 +13093,7 @@
       </c>
       <c r="G8" s="29"/>
       <c r="I8" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="16"/>
@@ -12194,7 +13107,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D9" s="54" t="str">
         <f t="shared" si="0"/>
@@ -12263,13 +13176,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B11" s="53" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D11" s="54" t="str">
         <f t="shared" si="0"/>
@@ -12302,7 +13215,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D12" s="54" t="str">
         <f t="shared" si="0"/>
@@ -12335,7 +13248,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D13" s="54" t="str">
         <f t="shared" si="0"/>
@@ -12371,7 +13284,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D14" s="54" t="str">
         <f t="shared" si="0"/>
@@ -12407,7 +13320,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D15" s="54" t="str">
         <f t="shared" si="0"/>
@@ -12432,7 +13345,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B16" s="53" t="s">
         <v>23</v>
@@ -12485,7 +13398,7 @@
       </c>
       <c r="G17" s="29"/>
       <c r="I17" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="16"/>
@@ -12513,7 +13426,7 @@
       </c>
       <c r="G18" s="29"/>
       <c r="I18" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="16">
@@ -12530,7 +13443,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D19" s="54" t="str">
         <f t="shared" si="0"/>
@@ -12544,7 +13457,7 @@
       </c>
       <c r="G19" s="29"/>
       <c r="I19" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="16">
@@ -12561,7 +13474,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D20" s="59" t="str">
         <f t="shared" si="0"/>
@@ -12598,7 +13511,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D21" s="59" t="str">
         <f t="shared" si="0"/>
@@ -12642,7 +13555,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D23" s="59" t="str">
         <f t="shared" si="0"/>
@@ -12664,7 +13577,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D24" s="59" t="str">
         <f t="shared" si="0"/>
@@ -12686,7 +13599,7 @@
         <v>112</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D25" s="26" t="str">
         <f t="shared" si="0"/>
@@ -12705,13 +13618,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="C26" s="61" t="s">
         <v>318</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>319</v>
       </c>
       <c r="D26" s="62" t="str">
         <f t="shared" si="0"/>
@@ -12730,13 +13643,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="61" t="s">
         <v>327</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>328</v>
       </c>
       <c r="D27" s="62" t="str">
         <f t="shared" si="0"/>
@@ -12752,13 +13665,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D28" s="62" t="str">
         <f t="shared" si="0"/>
@@ -12774,13 +13687,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" s="61" t="s">
         <v>357</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>358</v>
       </c>
       <c r="D29" s="62" t="str">
         <f t="shared" si="0"/>
@@ -12796,13 +13709,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="61" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="C30" s="61" t="s">
         <v>359</v>
-      </c>
-      <c r="B30" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="C30" s="61" t="s">
-        <v>360</v>
       </c>
       <c r="D30" s="62" t="str">
         <f t="shared" si="0"/>
@@ -12818,13 +13731,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="61" t="s">
         <v>361</v>
-      </c>
-      <c r="B31" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>362</v>
       </c>
       <c r="D31" s="62" t="str">
         <f t="shared" si="0"/>
@@ -12840,13 +13753,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>170</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D32" s="26" t="str">
         <f t="shared" si="0"/>
@@ -12865,13 +13778,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>120</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D33" s="26" t="str">
         <f t="shared" si="0"/>
@@ -12890,13 +13803,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="78" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B34" s="78" t="s">
         <v>139</v>
       </c>
       <c r="C34" s="78" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D34" s="79" t="str">
         <f t="shared" si="0"/>
@@ -12915,13 +13828,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="78" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B35" s="78" t="s">
         <v>139</v>
       </c>
       <c r="C35" s="78" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D35" s="79" t="str">
         <f t="shared" si="0"/>
@@ -12943,7 +13856,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D36" s="87" t="str">
         <f t="shared" si="0"/>
@@ -12962,13 +13875,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D37" s="87" t="str">
         <f t="shared" si="0"/>
@@ -12984,13 +13897,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D38" s="87" t="str">
         <f t="shared" si="0"/>
@@ -13006,13 +13919,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D39" s="87" t="str">
         <f t="shared" si="0"/>
@@ -13034,7 +13947,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="73" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D40" s="74" t="str">
         <f t="shared" si="0"/>
@@ -13059,7 +13972,7 @@
         <v>14</v>
       </c>
       <c r="C41" s="73" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D41" s="74" t="str">
         <f t="shared" si="0"/>
@@ -13081,7 +13994,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="73" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D42" s="74" t="str">
         <f t="shared" si="0"/>
@@ -13103,7 +14016,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="73" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D43" s="74" t="str">
         <f t="shared" si="0"/>
@@ -13119,13 +14032,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" s="73" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D44" s="74" t="str">
         <f t="shared" si="0"/>
@@ -13141,13 +14054,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D45" s="89" t="str">
         <f t="shared" si="0"/>
@@ -13172,7 +14085,7 @@
         <v>26</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D46" s="89" t="str">
         <f t="shared" si="0"/>
@@ -13194,7 +14107,7 @@
         <v>26</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D47" s="89" t="str">
         <f t="shared" si="0"/>
@@ -13210,13 +14123,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D48" s="89" t="str">
         <f t="shared" si="0"/>
@@ -13238,7 +14151,7 @@
         <v>26</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D49" s="89" t="str">
         <f t="shared" si="0"/>
@@ -13275,8 +14188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13292,10 +14205,10 @@
       <c r="C2" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="94" t="s">
-        <v>426</v>
-      </c>
-      <c r="F2" s="97"/>
+      <c r="E2" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="F2" s="95"/>
       <c r="G2" s="3">
         <v>6</v>
       </c>
@@ -13307,14 +14220,15 @@
       <c r="C3" s="3">
         <v>82620</v>
       </c>
-      <c r="E3" s="95" t="s">
-        <v>427</v>
+      <c r="E3" s="96" t="s">
+        <v>426</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G3" s="3">
-        <v>25000</v>
+        <f>33.7*600</f>
+        <v>20220</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13324,12 +14238,13 @@
       <c r="C4" s="3">
         <v>5000</v>
       </c>
-      <c r="E4" s="96"/>
+      <c r="E4" s="97"/>
       <c r="F4" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G4" s="3">
-        <v>20000</v>
+        <f>33.8*600</f>
+        <v>20280</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13339,12 +14254,13 @@
       <c r="C5" s="3">
         <v>5000</v>
       </c>
-      <c r="E5" s="96"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G5" s="3">
-        <v>10000</v>
+        <f>14.5*600</f>
+        <v>8700</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13354,12 +14270,13 @@
       <c r="C6" s="3">
         <v>2000</v>
       </c>
-      <c r="E6" s="96"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="3" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G6" s="3">
-        <v>10000</v>
+        <f>5*600</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13369,12 +14286,13 @@
       <c r="C7" s="3">
         <v>11256</v>
       </c>
-      <c r="E7" s="96"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G7" s="3">
-        <v>5000</v>
+        <f>8*600</f>
+        <v>4800</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13384,13 +14302,13 @@
       <c r="C8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="96"/>
+      <c r="E8" s="97"/>
       <c r="F8" s="3" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="G8" s="3">
-        <f>SUM(G3:G7)</f>
-        <v>70000</v>
+        <f>5*600</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13400,6 +14318,13 @@
       <c r="C9" s="3">
         <v>24000</v>
       </c>
+      <c r="E9" s="97"/>
+      <c r="F9" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
@@ -13408,6 +14333,14 @@
       <c r="C10" s="3">
         <v>6000</v>
       </c>
+      <c r="E10" s="98"/>
+      <c r="F10" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G10" s="3">
+        <f>SUM(G3:G9)</f>
+        <v>70000</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
@@ -13443,7 +14376,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C15" s="3">
         <v>980</v>
@@ -13454,22 +14387,30 @@
         <v>253</v>
       </c>
       <c r="C16" s="3">
-        <v>1000</v>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10000</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>256</v>
+        <v>430</v>
       </c>
       <c r="C18">
-        <f>SUM(C3:C16)</f>
-        <v>167466</v>
+        <f>SUM(C3:C17)</f>
+        <v>177966</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E3:E8"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13480,23 +14421,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P8"/>
+  <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>226</v>
@@ -13531,14 +14467,8 @@
       <c r="M2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>223</v>
       </c>
@@ -13579,14 +14509,8 @@
         <f>300000+300000</f>
         <v>600000</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="P3" s="3">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>224</v>
       </c>
@@ -13595,12 +14519,14 @@
         <v>108831</v>
       </c>
       <c r="D4" s="3">
+        <f>196535+D36</f>
         <v>227775</v>
       </c>
       <c r="E4" s="3">
         <v>298151</v>
       </c>
       <c r="F4" s="3">
+        <f>160623+D37</f>
         <v>184623</v>
       </c>
       <c r="G4" s="24">
@@ -13610,28 +14536,29 @@
         <v>422083</v>
       </c>
       <c r="I4" s="24">
-        <v>393785</v>
+        <f>197353+SUM(D38:D39)</f>
+        <v>393895</v>
       </c>
       <c r="J4" s="23">
-        <f>Outcome!C18+242000</f>
-        <v>409466</v>
+        <f>Reference!C18+242000+SUM(D40:D41)</f>
+        <v>447966</v>
       </c>
       <c r="K4" s="23">
-        <f>Outcome!C18</f>
-        <v>167466</v>
+        <f>Reference!C18</f>
+        <v>177966</v>
       </c>
       <c r="L4" s="23">
-        <f>Outcome!C18</f>
-        <v>167466</v>
+        <f>Reference!C18</f>
+        <v>177966</v>
       </c>
       <c r="M4" s="23">
-        <f>Outcome!C18+P3</f>
-        <v>237466</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+        <f>Reference!C18</f>
+        <v>177966</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -13655,117 +14582,116 @@
         <v>0</v>
       </c>
       <c r="J5" s="23">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="K5" s="23">
-        <f>J5+Outcome!$G$8</f>
-        <v>70000</v>
+        <f>J5+Reference!$G$10</f>
+        <v>250000</v>
       </c>
       <c r="L5" s="23">
-        <f>K5+Outcome!$G$8</f>
-        <v>140000</v>
+        <f>K5+Reference!$G$10</f>
+        <v>320000</v>
       </c>
       <c r="M5" s="23">
-        <f>L5+Outcome!$G$8</f>
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+        <f>L5+Reference!$G$10</f>
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <f>C6*(1+Outcome!$G$2/100/12)</f>
+        <f>C6*(1+Reference!$G$2/100/12)</f>
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <f>D6*(1+Outcome!$G$2/100/12)</f>
+        <f>D6*(1+Reference!$G$2/100/12)</f>
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <f>E6*(1+Outcome!$G$2/100/12)</f>
+        <f>E6*(1+Reference!$G$2/100/12)</f>
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <f>F6*(1+Outcome!$G$2/100/12)</f>
+        <f>F6*(1+Reference!$G$2/100/12)</f>
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <f>G6*(1+Outcome!$G$2/100/12)</f>
+        <f>G6*(1+Reference!$G$2/100/12)</f>
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <f>H6*(1+Outcome!$G$2/100/12)</f>
+        <f>H6*(1+Reference!$G$2/100/12)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="3">
-        <f>I6*(1+Outcome!$G$2/100/12)</f>
-        <v>0</v>
+      <c r="J6" s="24">
+        <v>180000</v>
       </c>
       <c r="K6" s="3">
-        <f>J6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>70000</v>
+        <f>J6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>250899.99999999997</v>
       </c>
       <c r="L6" s="3">
-        <f>K6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>140350</v>
+        <f>K6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>322154.49999999994</v>
       </c>
       <c r="M6" s="3">
-        <f>L6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>211051.74999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+        <f>L6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>393765.2724999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
       <c r="C7" s="3">
-        <f>C3-C4</f>
+        <f t="shared" ref="C7:I7" si="0">C3-C4</f>
         <v>-53410</v>
       </c>
       <c r="D7" s="3">
-        <f>D3-D4</f>
+        <f t="shared" si="0"/>
         <v>79882</v>
       </c>
       <c r="E7" s="3">
-        <f>E3-E4</f>
+        <f t="shared" si="0"/>
         <v>11502</v>
       </c>
       <c r="F7" s="3">
-        <f>F3-F4</f>
+        <f t="shared" si="0"/>
         <v>193356</v>
       </c>
       <c r="G7" s="24">
-        <f>G3-G4</f>
+        <f t="shared" si="0"/>
         <v>84326</v>
       </c>
       <c r="H7" s="24">
-        <f>H3-H4</f>
+        <f t="shared" si="0"/>
         <v>221716</v>
       </c>
       <c r="I7" s="3">
-        <f>I3-I4</f>
-        <v>-94408</v>
+        <f t="shared" si="0"/>
+        <v>-94518</v>
       </c>
       <c r="J7" s="3">
-        <f>J3-J4</f>
-        <v>-83624</v>
+        <f>J3-J4-J5</f>
+        <v>-302124</v>
       </c>
       <c r="K7" s="3">
-        <f>K3-K4-Outcome!$G$8</f>
-        <v>62534</v>
+        <f>K3-K4-Reference!$G$10</f>
+        <v>52034</v>
       </c>
       <c r="L7" s="3">
-        <f>L3-L4-Outcome!$G$8</f>
-        <v>62534</v>
+        <f>L3-L4-Reference!$G$10</f>
+        <v>52034</v>
       </c>
       <c r="M7" s="3">
-        <f>M3-M4-Outcome!$G$8</f>
-        <v>292534</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+        <f>M3-M4-Reference!$G$10</f>
+        <v>352034</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>225</v>
       </c>
@@ -13774,47 +14700,154 @@
         <v>-53410</v>
       </c>
       <c r="D8" s="3">
-        <f>C8+D7</f>
+        <f t="shared" ref="D8:M8" si="1">C8+D7</f>
         <v>26472</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ref="E8:L8" si="0">D8+E7</f>
+        <f t="shared" si="1"/>
         <v>37974</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>231330</v>
       </c>
       <c r="G8" s="24">
-        <f>F8+G7</f>
+        <f t="shared" si="1"/>
         <v>315656</v>
       </c>
       <c r="H8" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>537372</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>442964</v>
+        <f t="shared" si="1"/>
+        <v>442854</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="0"/>
-        <v>359340</v>
+        <f t="shared" si="1"/>
+        <v>140730</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="0"/>
-        <v>421874</v>
+        <f t="shared" si="1"/>
+        <v>192764</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="0"/>
-        <v>484408</v>
+        <f t="shared" si="1"/>
+        <v>244798</v>
       </c>
       <c r="M8" s="3">
-        <f>L8+M7</f>
-        <v>776942</v>
+        <f t="shared" si="1"/>
+        <v>596832</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="99" t="s">
+        <v>432</v>
+      </c>
+      <c r="C33" s="99"/>
+      <c r="D33" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="100" t="s">
+        <v>429</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D34" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="100"/>
+      <c r="C35" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D35" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="100" t="s">
+        <v>429</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D36" s="3">
+        <v>31240</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="100"/>
+      <c r="C37" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D37" s="3">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="100" t="s">
+        <v>448</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D38" s="3">
+        <v>59580</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="100"/>
+      <c r="C39" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D39" s="3">
+        <v>136962</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="100" t="s">
+        <v>429</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D40" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="100"/>
+      <c r="C41" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42" s="101" t="s">
+        <v>436</v>
+      </c>
+      <c r="C42" s="101"/>
+      <c r="D42">
+        <f>SUM(D34:D41)</f>
+        <v>354782</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B34:B35"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13824,10 +14857,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q8"/>
+  <dimension ref="B2:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13835,7 +14868,7 @@
     <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>239</v>
@@ -13873,14 +14906,8 @@
       <c r="N2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>223</v>
       </c>
@@ -13922,306 +14949,378 @@
         <f>305000+300000</f>
         <v>605000</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18+SUM(D33:D34)</f>
+        <v>217966</v>
       </c>
       <c r="D4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="E4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="F4" s="23">
-        <f>Outcome!$C$18+Q3</f>
-        <v>367466</v>
+        <f>Reference!$C$18+SUM(D35:D36)</f>
+        <v>327966</v>
       </c>
       <c r="G4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18+SUM(D37:D38)</f>
+        <v>247966</v>
       </c>
       <c r="H4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="I4" s="23">
-        <f>Outcome!$C$18+Q4</f>
-        <v>367466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="J4" s="23">
-        <f>Outcome!$C$18+Q7</f>
-        <v>417466</v>
+        <f>Reference!$C$18+SUM(D39:D40)</f>
+        <v>367966</v>
       </c>
       <c r="K4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="L4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="M4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="N4" s="23">
-        <f>Outcome!$C$18+Q4</f>
-        <v>367466</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+        <f>Reference!$C$18</f>
+        <v>177966</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C5" s="23">
-        <f>'2018'!M5+Outcome!$G$8</f>
+        <f>Reference!$G$10</f>
+        <v>70000</v>
+      </c>
+      <c r="D5" s="23">
+        <f>C5+Reference!$G$10</f>
+        <v>140000</v>
+      </c>
+      <c r="E5" s="23">
+        <f>D5+Reference!$G$10</f>
+        <v>210000</v>
+      </c>
+      <c r="F5" s="23">
+        <f>E5+Reference!$G$10</f>
         <v>280000</v>
       </c>
-      <c r="D5" s="23">
-        <f>C5+Outcome!$G$8</f>
+      <c r="G5" s="23">
+        <f>F5+Reference!$G$10</f>
         <v>350000</v>
       </c>
-      <c r="E5" s="23">
-        <f>D5+Outcome!$G$8</f>
+      <c r="H5" s="23">
+        <f>G5+Reference!$G$10</f>
         <v>420000</v>
       </c>
-      <c r="F5" s="23">
-        <f>E5+Outcome!$G$8</f>
+      <c r="I5" s="23">
+        <f>H5+Reference!$G$10</f>
         <v>490000</v>
       </c>
-      <c r="G5" s="23">
-        <f>F5+Outcome!$G$8</f>
+      <c r="J5" s="23">
+        <f>I5+Reference!$G$10</f>
         <v>560000</v>
       </c>
-      <c r="H5" s="23">
-        <f>G5+Outcome!$G$8</f>
+      <c r="K5" s="23">
+        <f>J5+Reference!$G$10</f>
         <v>630000</v>
       </c>
-      <c r="I5" s="23">
-        <f>H5+Outcome!$G$8</f>
+      <c r="L5" s="23">
+        <f>K5+Reference!$G$10</f>
         <v>700000</v>
       </c>
-      <c r="J5" s="23">
-        <f>I5+Outcome!$G$8</f>
+      <c r="M5" s="23">
+        <f>L5+Reference!$G$10</f>
         <v>770000</v>
       </c>
-      <c r="K5" s="23">
-        <f>J5+Outcome!$G$8</f>
+      <c r="N5" s="23">
+        <f>M5+Reference!$G$10</f>
         <v>840000</v>
       </c>
-      <c r="L5" s="23">
-        <f>K5+Outcome!$G$8</f>
-        <v>910000</v>
-      </c>
-      <c r="M5" s="23">
-        <f>L5+Outcome!$G$8</f>
-        <v>980000</v>
-      </c>
-      <c r="N5" s="23">
-        <f>M5+Outcome!$G$8</f>
-        <v>1050000</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C6" s="23">
-        <f>'2018'!M6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>282107.00874999992</v>
+        <f>'2018'!M6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>465734.09886249987</v>
       </c>
       <c r="D6" s="23">
-        <f>C6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>353517.54379374988</v>
+        <f>C6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>538062.76935681235</v>
       </c>
       <c r="E6" s="23">
-        <f>D6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>425285.13151271857</v>
+        <f>D6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>610753.08320359641</v>
       </c>
       <c r="F6" s="23">
-        <f>E6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>497411.55717028212</v>
+        <f>E6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>683806.84861961438</v>
       </c>
       <c r="G6" s="23">
-        <f>F6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>569898.61495613353</v>
+        <f>F6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>757225.88286271237</v>
       </c>
       <c r="H6" s="23">
-        <f>G6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>642748.1080309141</v>
+        <f>G6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>831012.01227702585</v>
       </c>
       <c r="I6" s="23">
-        <f>H6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>715961.84857106861</v>
+        <f>H6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>905167.07233841089</v>
       </c>
       <c r="J6" s="23">
-        <f>I6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>789541.6578139239</v>
+        <f>I6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>979692.90770010289</v>
       </c>
       <c r="K6" s="23">
-        <f>J6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>863489.36610299349</v>
+        <f>J6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>1054591.3722386034</v>
       </c>
       <c r="L6" s="23">
-        <f>K6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>937806.81293350831</v>
+        <f>K6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>1129864.3290997962</v>
       </c>
       <c r="M6" s="23">
-        <f>L6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>1012495.8469981757</v>
+        <f>L6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>1205513.6507452952</v>
       </c>
       <c r="N6" s="23">
-        <f>M6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>1087558.3262331665</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+        <f>M6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>1281541.2189990215</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
       <c r="C7" s="23">
-        <f>C3-C4+'2018'!M8-Outcome!$G$8</f>
-        <v>844476</v>
+        <f>C3-C4-Reference!$G$10</f>
+        <v>17034</v>
       </c>
       <c r="D7" s="23">
-        <f>D3-D4-Outcome!$G$8</f>
-        <v>67534</v>
+        <f>D3-D4-Reference!$G$10</f>
+        <v>57034</v>
       </c>
       <c r="E7" s="23">
-        <f>E3-E4-Outcome!$G$8</f>
-        <v>67534</v>
+        <f>E3-E4-Reference!$G$10</f>
+        <v>57034</v>
       </c>
       <c r="F7" s="23">
-        <f>F3-F4-Outcome!$G$8</f>
-        <v>-132466</v>
+        <f>F3-F4-Reference!$G$10</f>
+        <v>-92966</v>
       </c>
       <c r="G7" s="23">
-        <f>G3-G4-Outcome!$G$8</f>
-        <v>67534</v>
+        <f>G3-G4-Reference!$G$10</f>
+        <v>-12966</v>
       </c>
       <c r="H7" s="23">
-        <f>H3-H4-Outcome!$G$8</f>
-        <v>67534</v>
+        <f>H3-H4-Reference!$G$10</f>
+        <v>57034</v>
       </c>
       <c r="I7" s="23">
-        <f>I3-I4-Outcome!$G$8</f>
-        <v>167534</v>
+        <f>I3-I4-Reference!$G$10</f>
+        <v>357034</v>
       </c>
       <c r="J7" s="23">
-        <f>J3-J4-Outcome!$G$8</f>
-        <v>-182466</v>
+        <f>J3-J4-Reference!$G$10</f>
+        <v>-132966</v>
       </c>
       <c r="K7" s="23">
-        <f>K3-K4-Outcome!$G$8</f>
-        <v>67534</v>
+        <f>K3-K4-Reference!$G$10</f>
+        <v>57034</v>
       </c>
       <c r="L7" s="23">
-        <f>L3-L4-Outcome!$G$8</f>
-        <v>67534</v>
+        <f>L3-L4-Reference!$G$10</f>
+        <v>57034</v>
       </c>
       <c r="M7" s="23">
-        <f>M3-M4-Outcome!$G$8</f>
-        <v>67534</v>
+        <f>M3-M4-Reference!$G$10</f>
+        <v>57034</v>
       </c>
       <c r="N7" s="23">
-        <f>N3-N4-Outcome!$G$8</f>
-        <v>167534</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+        <f>N3-N4-Reference!$G$10</f>
+        <v>357034</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C8" s="23">
         <f>C7</f>
-        <v>844476</v>
+        <v>17034</v>
       </c>
       <c r="D8" s="23">
         <f>D7+C8</f>
-        <v>912010</v>
+        <v>74068</v>
       </c>
       <c r="E8" s="23">
         <f>D8+E7</f>
-        <v>979544</v>
+        <v>131102</v>
       </c>
       <c r="F8" s="23">
-        <f t="shared" ref="F8:N8" si="0">E8+F7</f>
-        <v>847078</v>
+        <f t="shared" ref="F8:M8" si="0">E8+F7</f>
+        <v>38136</v>
       </c>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
-        <v>914612</v>
+        <v>25170</v>
       </c>
       <c r="H8" s="23">
         <f t="shared" si="0"/>
-        <v>982146</v>
+        <v>82204</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="0"/>
-        <v>1149680</v>
+        <v>439238</v>
       </c>
       <c r="J8" s="23">
         <f t="shared" si="0"/>
-        <v>967214</v>
+        <v>306272</v>
       </c>
       <c r="K8" s="23">
         <f t="shared" si="0"/>
-        <v>1034748</v>
+        <v>363306</v>
       </c>
       <c r="L8" s="23">
         <f t="shared" si="0"/>
-        <v>1102282</v>
+        <v>420340</v>
       </c>
       <c r="M8" s="23">
         <f t="shared" si="0"/>
-        <v>1169816</v>
+        <v>477374</v>
       </c>
       <c r="N8" s="23">
         <f>M8+N7</f>
-        <v>1337350</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <f>SUM(Q4:Q7)</f>
-        <v>590000</v>
+        <v>834408</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="105" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" s="106"/>
+      <c r="D32" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="103" t="s">
+        <v>429</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="104"/>
+      <c r="C34" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D34" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="103" t="s">
+        <v>445</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="104"/>
+      <c r="C36" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D36" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="103" t="s">
+        <v>431</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D37" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="104"/>
+      <c r="C38" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D38" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="100" t="s">
+        <v>444</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D39" s="3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="100"/>
+      <c r="C40" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D40" s="3">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="C41" s="102"/>
+      <c r="D41" s="94">
+        <f>SUM(D33:D40)</f>
+        <v>450000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14231,10 +15330,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q8"/>
+  <dimension ref="B2:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14242,7 +15341,7 @@
     <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
         <v>239</v>
@@ -14280,14 +15379,8 @@
       <c r="N2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>223</v>
       </c>
@@ -14329,306 +15422,357 @@
         <f>310000+300000</f>
         <v>610000</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18+SUM(D33:D34)</f>
+        <v>327966</v>
       </c>
       <c r="D4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="E4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="F4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="G4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18+SUM(D35:D36)</f>
+        <v>247966</v>
       </c>
       <c r="H4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="I4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="J4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18+SUM(D37:D38)</f>
+        <v>367966</v>
       </c>
       <c r="K4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="L4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="M4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
+        <f>Reference!$C$18</f>
+        <v>177966</v>
       </c>
       <c r="N4" s="23">
-        <f>Outcome!$C$18</f>
-        <v>167466</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+        <f>Reference!$C$18</f>
+        <v>177966</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C5" s="23">
-        <f>'2019'!N5+Outcome!$G$8</f>
-        <v>1120000</v>
+        <f>Reference!$G$10</f>
+        <v>70000</v>
       </c>
       <c r="D5" s="23">
-        <f>C5+Outcome!$G$8</f>
-        <v>1190000</v>
+        <f>C5+Reference!$G$10</f>
+        <v>140000</v>
       </c>
       <c r="E5" s="23">
-        <f>D5+Outcome!$G$8</f>
-        <v>1260000</v>
+        <f>D5+Reference!$G$10</f>
+        <v>210000</v>
       </c>
       <c r="F5" s="23">
-        <f>E5+Outcome!$G$8</f>
-        <v>1330000</v>
+        <f>E5+Reference!$G$10</f>
+        <v>280000</v>
       </c>
       <c r="G5" s="23">
-        <f>F5+Outcome!$G$8</f>
-        <v>1400000</v>
+        <f>F5+Reference!$G$10</f>
+        <v>350000</v>
       </c>
       <c r="H5" s="23">
-        <f>G5+Outcome!$G$8</f>
-        <v>1470000</v>
+        <f>G5+Reference!$G$10</f>
+        <v>420000</v>
       </c>
       <c r="I5" s="23">
-        <f>H5+Outcome!$G$8</f>
-        <v>1540000</v>
+        <f>H5+Reference!$G$10</f>
+        <v>490000</v>
       </c>
       <c r="J5" s="23">
-        <f>I5+Outcome!$G$8</f>
-        <v>1610000</v>
+        <f>I5+Reference!$G$10</f>
+        <v>560000</v>
       </c>
       <c r="K5" s="23">
-        <f>J5+Outcome!$G$8</f>
-        <v>1680000</v>
+        <f>J5+Reference!$G$10</f>
+        <v>630000</v>
       </c>
       <c r="L5" s="23">
-        <f>K5+Outcome!$G$8</f>
-        <v>1750000</v>
+        <f>K5+Reference!$G$10</f>
+        <v>700000</v>
       </c>
       <c r="M5" s="23">
-        <f>L5+Outcome!$G$8</f>
-        <v>1820000</v>
+        <f>L5+Reference!$G$10</f>
+        <v>770000</v>
       </c>
       <c r="N5" s="23">
-        <f>M5+Outcome!$G$8</f>
-        <v>1890000</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+        <f>M5+Reference!$G$10</f>
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C6" s="23">
-        <f>'2019'!N6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>1162996.1178643322</v>
+        <f>'2019'!N6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>1357948.9250940164</v>
       </c>
       <c r="D6" s="23">
-        <f>C6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>1238811.0984536537</v>
+        <f>C6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>1434738.6697194863</v>
       </c>
       <c r="E6" s="23">
-        <f>D6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>1315005.1539459219</v>
+        <f>D6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>1511912.3630680835</v>
       </c>
       <c r="F6" s="23">
-        <f>E6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>1391580.1797156513</v>
+        <f>E6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>1589471.9248834238</v>
       </c>
       <c r="G6" s="23">
-        <f>F6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>1468538.0806142294</v>
+        <f>F6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>1667419.2845078409</v>
       </c>
       <c r="H6" s="23">
-        <f>G6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>1545880.7710173004</v>
+        <f>G6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>1745756.38093038</v>
       </c>
       <c r="I6" s="23">
-        <f>H6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>1623610.1748723867</v>
+        <f>H6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>1824485.1628350317</v>
       </c>
       <c r="J6" s="23">
-        <f>I6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>1701728.2257467485</v>
+        <f>I6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>1903607.5886492068</v>
       </c>
       <c r="K6" s="23">
-        <f>J6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>1780236.866875482</v>
+        <f>J6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>1983125.6265924526</v>
       </c>
       <c r="L6" s="23">
-        <f>K6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>1859138.0512098593</v>
+        <f>K6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>2063041.2547254148</v>
       </c>
       <c r="M6" s="23">
-        <f>L6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>1938433.7414659085</v>
+        <f>L6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>2143356.4609990418</v>
       </c>
       <c r="N6" s="23">
-        <f>M6*(1+Outcome!$G$2/100/12)+Outcome!$G$8</f>
-        <v>2018125.9101732378</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+        <f>M6*(1+Reference!$G$2/100/12)+Reference!$G$10</f>
+        <v>2224073.2433040366</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3"/>
       <c r="C7" s="23">
-        <f>C3-C4+'2019'!N8-Outcome!$G$8</f>
-        <v>1409884</v>
+        <f>C3-C4-Reference!$G$10</f>
+        <v>-87966</v>
       </c>
       <c r="D7" s="23">
-        <f>D3-D4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>D3-D4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="E7" s="23">
-        <f>E3-E4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>E3-E4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="F7" s="23">
-        <f>F3-F4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>F3-F4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="G7" s="23">
-        <f>G3-G4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>G3-G4-Reference!$G$10</f>
+        <v>-7966</v>
       </c>
       <c r="H7" s="23">
-        <f>H3-H4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>H3-H4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="I7" s="23">
-        <f>I3-I4-Outcome!$G$8</f>
-        <v>372534</v>
+        <f>I3-I4-Reference!$G$10</f>
+        <v>362034</v>
       </c>
       <c r="J7" s="23">
-        <f>J3-J4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>J3-J4-Reference!$G$10</f>
+        <v>-127966</v>
       </c>
       <c r="K7" s="23">
-        <f>K3-K4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>K3-K4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="L7" s="23">
-        <f>L3-L4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>L3-L4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="M7" s="23">
-        <f>M3-M4-Outcome!$G$8</f>
-        <v>72534</v>
+        <f>M3-M4-Reference!$G$10</f>
+        <v>62034</v>
       </c>
       <c r="N7" s="23">
-        <f>N3-N4-Outcome!$G$8</f>
-        <v>372534</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+        <f>N3-N4-Reference!$G$10</f>
+        <v>362034</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C8" s="23">
         <f>C7</f>
-        <v>1409884</v>
+        <v>-87966</v>
       </c>
       <c r="D8" s="23">
         <f>D7+C8</f>
-        <v>1482418</v>
+        <v>-25932</v>
       </c>
       <c r="E8" s="23">
         <f>D8+E7</f>
-        <v>1554952</v>
+        <v>36102</v>
       </c>
       <c r="F8" s="23">
-        <f t="shared" ref="F8:N8" si="0">E8+F7</f>
-        <v>1627486</v>
+        <f t="shared" ref="F8:M8" si="0">E8+F7</f>
+        <v>98136</v>
       </c>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
-        <v>1700020</v>
+        <v>90170</v>
       </c>
       <c r="H8" s="23">
         <f t="shared" si="0"/>
-        <v>1772554</v>
+        <v>152204</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="0"/>
-        <v>2145088</v>
+        <v>514238</v>
       </c>
       <c r="J8" s="23">
         <f t="shared" si="0"/>
-        <v>2217622</v>
+        <v>386272</v>
       </c>
       <c r="K8" s="23">
         <f t="shared" si="0"/>
-        <v>2290156</v>
+        <v>448306</v>
       </c>
       <c r="L8" s="23">
         <f t="shared" si="0"/>
-        <v>2362690</v>
+        <v>510340</v>
       </c>
       <c r="M8" s="23">
         <f t="shared" si="0"/>
-        <v>2435224</v>
+        <v>572374</v>
       </c>
       <c r="N8" s="23">
-        <f>M8+N7-Q5</f>
-        <v>2737758</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <f>SUM(Q4:Q7)</f>
-        <v>590000</v>
+        <f>M8+N7</f>
+        <v>934408</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="105" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" s="106"/>
+      <c r="D32" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="103" t="s">
+        <v>445</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="104"/>
+      <c r="C34" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D34" s="3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="103" t="s">
+        <v>429</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D35" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="104"/>
+      <c r="C36" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D36" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="100" t="s">
+        <v>444</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D37" s="3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="100"/>
+      <c r="C38" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D38" s="3">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" s="102"/>
+      <c r="D39" s="94">
+        <f>SUM(D33:D38)</f>
+        <v>410000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
